--- a/src/main/StrengtheningDataBase.xlsx
+++ b/src/main/StrengtheningDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\Game\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE358175-17D6-4347-81AC-93433B85F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97004AC-E5F8-4335-B141-CDE130E65BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1339,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1388,7 +1388,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="33">
         <v>1</v>
